--- a/Heart_Disease_Chance_Analysis.xlsx
+++ b/Heart_Disease_Chance_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAIKAT PRADHAN\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CC0EA32-5313-4A17-B6DB-7E756EA0659B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED757E7-BC8E-4280-B549-F14E9A75E605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4053CC1D-9316-4DC2-AEE2-6309125A5449}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -375,19 +375,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <sz val="14"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor rgb="FF66FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -397,12 +384,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -452,14 +434,33 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <sz val="14"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FF66FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Slicer Style 1" pivot="0" table="0" count="1" xr9:uid="{9C33AF6A-9B97-4020-9F2C-EAAA9CA2D339}">
-      <tableStyleElement type="wholeTable" dxfId="0"/>
+    <tableStyle name="Slicer Style 1" pivot="0" table="0" count="2" xr9:uid="{9C33AF6A-9B97-4020-9F2C-EAAA9CA2D339}">
+      <tableStyleElement type="wholeTable" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFAA0836"/>
       <color rgb="FF00CC00"/>
       <color rgb="FF66FFCC"/>
       <color rgb="FF45DBD4"/>
@@ -472,9 +473,25 @@
     </mruColors>
   </colors>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
+      <x14:dxfs count="1">
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <u val="double"/>
+            <color theme="4"/>
+          </font>
+        </dxf>
+      </x14:dxfs>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1">
-        <x14:slicerStyle name="Slicer Style 1"/>
+        <x14:slicerStyle name="Slicer Style 1">
+          <x14:slicerStyleElements>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="0"/>
+          </x14:slicerStyleElements>
+        </x14:slicerStyle>
       </x14:slicerStyles>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
@@ -502,6 +519,92 @@
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" b="1" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>High</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" b="1" u="sng" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Chances of Heart Disease According to Sex</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10312499999999998"/>
+          <c:y val="1.2345679012345678E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -1386,8 +1489,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.63515717713503639"/>
-          <c:y val="5.2833661417322833E-2"/>
+          <c:x val="0.65982827393286381"/>
+          <c:y val="8.5755484268170187E-2"/>
           <c:w val="0.32908923884514441"/>
           <c:h val="0.15625109361329834"/>
         </c:manualLayout>
@@ -1493,6 +1596,46 @@
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1200" b="1" i="0" u="sng" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>High Chances of Heart Disease According to  Chest Pain </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1200" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18305555555555558"/>
+          <c:y val="1.8518518518518517E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -2533,8 +2676,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.63515717713503639"/>
-          <c:y val="5.2833661417322833E-2"/>
+          <c:x val="0.66015726159230093"/>
+          <c:y val="0.2380187372411782"/>
           <c:w val="0.32908923884514441"/>
           <c:h val="0.15625109361329834"/>
         </c:manualLayout>
@@ -2633,6 +2776,68 @@
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="1" i="0" u="sng" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>High Chances of Heart Disease According to Blood Sugar Level</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -2677,6 +2882,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -2721,6 +2935,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -2765,6 +2988,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -2809,6 +3041,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3492,6 +3733,38 @@
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="1" i="0" u="sng" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>High Chances of Heart Disease According to Cholesterol Level</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -3536,6 +3809,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3580,6 +3862,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3624,6 +3915,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3668,6 +3968,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4431,12 +4740,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" b="1"/>
-                  <a:t>Blood</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-IN" b="1" baseline="0"/>
-                  <a:t> Sugar Level Type</a:t>
+                  <a:t>Cholesterol Level Type</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4664,6 +4969,79 @@
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="1" i="0" u="sng" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="AA0836"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>High Chances of Heart Disease According to Blood Presure level</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="AA0836"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16531816612693767"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -5522,8 +5900,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.59973808075660684"/>
-          <c:y val="7.060075823855351E-2"/>
+          <c:x val="0.64149173420128325"/>
+          <c:y val="0.14004520268299797"/>
           <c:w val="0.34020034995625548"/>
           <c:h val="0.25694663167104109"/>
         </c:manualLayout>
@@ -5629,6 +6007,83 @@
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000" b="1" i="0" u="sng" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>High Chances of Heart Disease According to Thalassemia Types</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1000" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12056747216942709"/>
+          <c:y val="9.2592592592592587E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -6602,7 +7057,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1">
+              <a:rPr lang="en-US" b="1" u="sng">
                 <a:solidFill>
                   <a:srgbClr val="0000FF"/>
                 </a:solidFill>
@@ -6610,14 +7065,14 @@
               <a:t>Counts</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0">
+              <a:rPr lang="en-US" b="1" u="sng" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="0000FF"/>
                 </a:solidFill>
               </a:rPr>
               <a:t> of Persons on the Basis of Age Category</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="1">
+            <a:endParaRPr lang="en-US" b="1" u="sng">
               <a:solidFill>
                 <a:srgbClr val="0000FF"/>
               </a:solidFill>
@@ -6625,6 +7080,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17667094998541849"/>
+          <c:y val="2.7450981804898453E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7310,6 +7773,76 @@
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1050" b="1" i="0" u="sng" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>High Chances of Heart Disease According to Different Parameters</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -7357,6 +7890,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -7404,6 +7946,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -7451,6 +8002,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -7498,6 +8058,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -7545,6 +8114,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -7592,6 +8170,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -8368,8 +8955,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.63395863517060369"/>
-          <c:y val="4.8030766987459901E-2"/>
+          <c:x val="0.62329196850393698"/>
+          <c:y val="0.13599372995042289"/>
           <c:w val="0.33937469816272964"/>
           <c:h val="0.38541994750656167"/>
         </c:manualLayout>
@@ -8475,6 +9062,48 @@
     <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="1" i="0" u="sng" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="AA0836"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>High Chances of Heart Disease According to Age Category</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="AA0836"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1338611111111111"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -12904,12 +13533,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>536198</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457105</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8909811" cy="937629"/>
+    <xdr:ext cx="11397544" cy="937629"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Rectangle 1">
@@ -12923,8 +13552,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2364998" y="0"/>
-          <a:ext cx="8909811" cy="937629"/>
+          <a:off x="1676305" y="0"/>
+          <a:ext cx="11397544" cy="937629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12942,7 +13571,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+            <a:rPr lang="en-US" sz="5400" b="1" u="sng" cap="none" spc="0" baseline="0">
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
@@ -12961,31 +13590,9 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>Heart</a:t>
+            <a:t>High Chances of Heart Disease Analysis</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0" baseline="0">
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="12700" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t> Disease Chance Analysis</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+          <a:endParaRPr lang="en-US" sz="5400" b="1" u="sng" cap="none" spc="0">
             <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
@@ -13012,15 +13619,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
+      <xdr:colOff>225334</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>165463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:colOff>591094</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>142603</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13049,16 +13656,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13126,15 +13733,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13164,15 +13771,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13240,15 +13847,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>57694</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>149135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>179614</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>149135</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13277,16 +13884,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13326,8 +13933,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="13" name="Age Category">
@@ -13350,7 +13957,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13394,15 +14001,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:colOff>365760</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13542,7 +14149,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="1">
+            <a:rPr lang="en-IN" sz="1400" b="1" u="sng">
               <a:solidFill>
                 <a:srgbClr val="00CC00"/>
               </a:solidFill>
@@ -13550,14 +14157,14 @@
             <a:t>Slicer on The Basis of Age</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="1" baseline="0">
+            <a:rPr lang="en-IN" sz="1400" b="1" u="sng" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="00CC00"/>
               </a:solidFill>
             </a:rPr>
             <a:t> Category</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1400" b="1">
+          <a:endParaRPr lang="en-IN" sz="1400" b="1" u="sng">
             <a:solidFill>
               <a:srgbClr val="00CC00"/>
             </a:solidFill>
@@ -13568,10 +14175,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19885,7 +20488,313 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1DD43202-A71E-46C6-8E04-EB4A45021282}" name="PivotTable11" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDE7D3AF-071D-4111-B384-529072DAE818}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A12:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0">
+      <items count="42">
+        <item x="31"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="1"/>
+        <item x="39"/>
+        <item x="26"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="21"/>
+        <item x="6"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="32"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="33"/>
+        <item x="18"/>
+        <item x="28"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="15"/>
+        <item x="38"/>
+        <item x="20"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Fasting Blood Sugar Level" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="High chance of Heart Disease" fld="13" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F820044-4A89-4699-A1C5-CDB4B03A168A}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="E10:G13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0">
+      <items count="42">
+        <item x="31"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="1"/>
+        <item x="39"/>
+        <item x="26"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="21"/>
+        <item x="6"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="32"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="33"/>
+        <item x="18"/>
+        <item x="28"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="15"/>
+        <item x="38"/>
+        <item x="20"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Thalassemia" fld="12" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Heart Disease(0/1)" fld="13" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1DD43202-A71E-46C6-8E04-EB4A45021282}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E24:G41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="18">
     <pivotField showAll="0">
@@ -20093,147 +21002,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C65B7AC-E88F-4FEB-87E2-A982CB90FF18}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A1:C3" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0">
-      <items count="42">
-        <item x="31"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="1"/>
-        <item x="39"/>
-        <item x="26"/>
-        <item x="19"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="14"/>
-        <item x="5"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="21"/>
-        <item x="6"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="32"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="16"/>
-        <item x="33"/>
-        <item x="18"/>
-        <item x="28"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item x="22"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="15"/>
-        <item x="38"/>
-        <item x="20"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Sex" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="High chance of Heart Disease" fld="13" baseField="1" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1A5F99B-9632-4067-AB89-FFDFB3DAC3A3}" name="PivotTable10" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1A5F99B-9632-4067-AB89-FFDFB3DAC3A3}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="E20:H22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0">
@@ -20390,8 +21160,161 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D31413C-CD07-4543-805B-FE18DDB5367A}" name="PivotTable9" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CBA9DFC0-6D06-4772-812D-C80E9EA264E8}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A6:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0">
+      <items count="42">
+        <item x="31"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="1"/>
+        <item x="39"/>
+        <item x="26"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="21"/>
+        <item x="6"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="32"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="33"/>
+        <item x="18"/>
+        <item x="28"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="15"/>
+        <item x="38"/>
+        <item x="20"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Chest Pain Type" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="High chance of Heart Disease" fld="13" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D31413C-CD07-4543-805B-FE18DDB5367A}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="E15:F18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0">
@@ -20550,9 +21473,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F820044-4A89-4699-A1C5-CDB4B03A168A}" name="PivotTable8" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="E10:G13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C65B7AC-E88F-4FEB-87E2-A982CB90FF18}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A1:C3" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0">
       <items count="42">
@@ -20600,7 +21523,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="3">
         <item x="1"/>
         <item x="0"/>
@@ -20617,28 +21540,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -20651,17 +21555,14 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="12"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="2">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -20676,8 +21577,8 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Count of Thalassemia" fld="12" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Heart Disease(0/1)" fld="13" baseField="0" baseItem="0"/>
+    <dataField name="Count of Sex" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="High chance of Heart Disease" fld="13" baseField="1" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
     <chartFormat chart="2" format="4" series="1">
@@ -20711,186 +21612,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{196D34DD-D4E5-4795-A415-37B4C07B78D5}" name="PivotTable7" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="E5:G8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0">
-      <items count="42">
-        <item x="31"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="1"/>
-        <item x="39"/>
-        <item x="26"/>
-        <item x="19"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="14"/>
-        <item x="5"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="21"/>
-        <item x="6"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="32"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="16"/>
-        <item x="33"/>
-        <item x="18"/>
-        <item x="28"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item x="22"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="15"/>
-        <item x="38"/>
-        <item x="20"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="17"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Age Category" fld="17" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="High chance of Heart Disease" fld="13" baseField="1" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="2" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D5134EF-6E34-495E-8D6D-E419AD593F21}" name="PivotTable6" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D5134EF-6E34-495E-8D6D-E419AD593F21}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="E1:G3" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0">
@@ -21082,8 +21805,186 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E097995-247F-433D-9EE7-3AFE52225E17}" name="PivotTable5" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{196D34DD-D4E5-4795-A415-37B4C07B78D5}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="E5:G8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0">
+      <items count="42">
+        <item x="31"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="1"/>
+        <item x="39"/>
+        <item x="26"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="21"/>
+        <item x="6"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="32"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="33"/>
+        <item x="18"/>
+        <item x="28"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="15"/>
+        <item x="38"/>
+        <item x="20"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="17"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Age Category" fld="17" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="High chance of Heart Disease" fld="13" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E097995-247F-433D-9EE7-3AFE52225E17}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A16:C20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0">
@@ -21235,304 +22136,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDE7D3AF-071D-4111-B384-529072DAE818}" name="PivotTable4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A12:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0">
-      <items count="42">
-        <item x="31"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="1"/>
-        <item x="39"/>
-        <item x="26"/>
-        <item x="19"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="14"/>
-        <item x="5"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="21"/>
-        <item x="6"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="32"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="16"/>
-        <item x="33"/>
-        <item x="18"/>
-        <item x="28"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item x="22"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="15"/>
-        <item x="38"/>
-        <item x="20"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Fasting Blood Sugar Level" fld="5" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="High chance of Heart Disease" fld="13" baseField="1" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CBA9DFC0-6D06-4772-812D-C80E9EA264E8}" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A6:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0">
-      <items count="42">
-        <item x="31"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="1"/>
-        <item x="39"/>
-        <item x="26"/>
-        <item x="19"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="14"/>
-        <item x="5"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="21"/>
-        <item x="6"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="32"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="16"/>
-        <item x="33"/>
-        <item x="18"/>
-        <item x="28"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item x="22"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="15"/>
-        <item x="38"/>
-        <item x="20"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Chest Pain Type" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="High chance of Heart Disease" fld="13" baseField="1" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{86E166DB-AA61-4BA1-94A3-49C910319317}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="19">
@@ -21593,29 +22196,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE74FE2C-8F3E-44A0-A919-270568DCAB2D}" name="heart_readable" displayName="heart_readable" ref="A1:R304" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE74FE2C-8F3E-44A0-A919-270568DCAB2D}" name="heart_readable" displayName="heart_readable" ref="A1:R304" tableType="queryTable" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:R304" xr:uid="{AE74FE2C-8F3E-44A0-A919-270568DCAB2D}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{E861CFC0-9020-4A40-9D84-5878A03D28D2}" uniqueName="1" name="Age" queryTableFieldId="1" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{5653E853-164B-4DF4-ADF6-75E5D0B9A0EC}" uniqueName="2" name="Sex" queryTableFieldId="2" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{5668CFE1-365A-4EDA-A3F7-FA951E09C16D}" uniqueName="3" name="Resting Blood Pressure" queryTableFieldId="3" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{9C32B1CB-CF45-4B08-97DA-3F686D9215AA}" uniqueName="4" name="Chest Pain Type" queryTableFieldId="4" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{BFCBBB53-3B14-4F45-BA03-0AD5DE9F0BBD}" uniqueName="5" name="Cholesterol" queryTableFieldId="5" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{A0AF90A9-DF43-4F52-A126-D1B6AFB25B0D}" uniqueName="6" name="Fasting Blood Sugar Level" queryTableFieldId="6" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{F5BE386E-5438-491E-B6A6-BE1A4742F2A9}" uniqueName="7" name="Resting ECG Results" queryTableFieldId="7" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{D82AB95F-CF99-4AC7-A956-EFB4A11104FE}" uniqueName="8" name="Max Heart Rate Achieved" queryTableFieldId="8" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{23D4AD77-B107-41C5-993E-5C8F2E1D479F}" uniqueName="9" name="Exercise Induced Angina" queryTableFieldId="9" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{AB92E10F-6C63-4FDD-ABD0-7BE26CFDC182}" uniqueName="10" name="ST Depression (Oldpeak)" queryTableFieldId="10" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{5D7CEDD0-29D6-4A64-A0F6-F147837F26D5}" uniqueName="11" name="Slope of ST Segment" queryTableFieldId="11" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{D913E621-854F-49BE-B9C3-D4164CCE6248}" uniqueName="12" name="Number of Major Vessels" queryTableFieldId="12" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{026E7938-69F5-4C82-B856-DCA91857E284}" uniqueName="13" name="Thalassemia" queryTableFieldId="13" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{3A7A21AB-DA14-4C9A-832C-2715A7F85E3B}" uniqueName="18" name="Heart Disease(0/1)" queryTableFieldId="18" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{E861CFC0-9020-4A40-9D84-5878A03D28D2}" uniqueName="1" name="Age" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{5653E853-164B-4DF4-ADF6-75E5D0B9A0EC}" uniqueName="2" name="Sex" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{5668CFE1-365A-4EDA-A3F7-FA951E09C16D}" uniqueName="3" name="Resting Blood Pressure" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{9C32B1CB-CF45-4B08-97DA-3F686D9215AA}" uniqueName="4" name="Chest Pain Type" queryTableFieldId="4" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{BFCBBB53-3B14-4F45-BA03-0AD5DE9F0BBD}" uniqueName="5" name="Cholesterol" queryTableFieldId="5" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{A0AF90A9-DF43-4F52-A126-D1B6AFB25B0D}" uniqueName="6" name="Fasting Blood Sugar Level" queryTableFieldId="6" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{F5BE386E-5438-491E-B6A6-BE1A4742F2A9}" uniqueName="7" name="Resting ECG Results" queryTableFieldId="7" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{D82AB95F-CF99-4AC7-A956-EFB4A11104FE}" uniqueName="8" name="Max Heart Rate Achieved" queryTableFieldId="8" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{23D4AD77-B107-41C5-993E-5C8F2E1D479F}" uniqueName="9" name="Exercise Induced Angina" queryTableFieldId="9" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{AB92E10F-6C63-4FDD-ABD0-7BE26CFDC182}" uniqueName="10" name="ST Depression (Oldpeak)" queryTableFieldId="10" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{5D7CEDD0-29D6-4A64-A0F6-F147837F26D5}" uniqueName="11" name="Slope of ST Segment" queryTableFieldId="11" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{D913E621-854F-49BE-B9C3-D4164CCE6248}" uniqueName="12" name="Number of Major Vessels" queryTableFieldId="12" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{026E7938-69F5-4C82-B856-DCA91857E284}" uniqueName="13" name="Thalassemia" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{3A7A21AB-DA14-4C9A-832C-2715A7F85E3B}" uniqueName="18" name="Heart Disease(0/1)" queryTableFieldId="18" dataDxfId="4">
       <calculatedColumnFormula xml:space="preserve"> IF(heart_readable[[#This Row],[Heart Disease]]="Yes", 1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{073C7A3F-7E13-4752-9DEE-136BB6D6A105}" uniqueName="14" name="Heart Disease" queryTableFieldId="14" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{DE9A155E-DAF3-4890-8ACF-D80F654787AA}" uniqueName="15" name="Cholesterol Level" queryTableFieldId="15" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{9A163A80-46D4-49A9-9DD6-479707E2E295}" uniqueName="16" name="Blood Pressure Level" queryTableFieldId="16" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{8AEFD6BF-9AD5-422A-BE59-60E921B99574}" uniqueName="17" name="Age Category" queryTableFieldId="17" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{073C7A3F-7E13-4752-9DEE-136BB6D6A105}" uniqueName="14" name="Heart Disease" queryTableFieldId="14" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{DE9A155E-DAF3-4890-8ACF-D80F654787AA}" uniqueName="15" name="Cholesterol Level" queryTableFieldId="15" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{9A163A80-46D4-49A9-9DD6-479707E2E295}" uniqueName="16" name="Blood Pressure Level" queryTableFieldId="16" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{8AEFD6BF-9AD5-422A-BE59-60E921B99574}" uniqueName="17" name="Age Category" queryTableFieldId="17" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -39285,8 +39888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8E53B8-3DFE-4C19-87EE-457F752B8B40}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39744,8 +40347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B9E1AF-AECB-4628-839E-B0973A24F2AF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
